--- a/src/com/ptl/data/TestData.xlsx
+++ b/src/com/ptl/data/TestData.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="19320" windowHeight="6420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="3630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Login Test" sheetId="2" r:id="rId2"/>
     <sheet name="Allocate Location Test" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R20"/>
+  <oleSize ref="A1:M10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>TCID</t>
   </si>
@@ -56,6 +59,24 @@
   </si>
   <si>
     <t>ward1</t>
+  </si>
+  <si>
+    <t>admin_welikada</t>
+  </si>
+  <si>
+    <t>test$123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test$123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test$123 </t>
+  </si>
+  <si>
+    <t>TEST$123</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -133,8 +154,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -485,10 +534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +564,51 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -527,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/com/ptl/data/TestData.xlsx
+++ b/src/com/ptl/data/TestData.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="3630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Login Test" sheetId="2" r:id="rId2"/>
     <sheet name="Allocate Location Test" sheetId="3" r:id="rId3"/>
+    <sheet name="Inmate Registration-Personal" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:M10"/>
+  <calcPr calcId="144525"/>
+  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>TCID</t>
   </si>
@@ -77,6 +78,90 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Inmate Registration-Personal</t>
+  </si>
+  <si>
+    <t>OtherName1</t>
+  </si>
+  <si>
+    <t>OtherName2</t>
+  </si>
+  <si>
+    <t>CallName1</t>
+  </si>
+  <si>
+    <t>CallName2</t>
+  </si>
+  <si>
+    <t>AddrLine1</t>
+  </si>
+  <si>
+    <t>AddrLine2</t>
+  </si>
+  <si>
+    <t>PostOffice</t>
+  </si>
+  <si>
+    <t>PostCode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>GsDiv</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>PoliceDiv</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Western Province</t>
+  </si>
+  <si>
+    <t>Kollupitiya</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Rajur</t>
+  </si>
+  <si>
+    <t>Rajeshin</t>
+  </si>
+  <si>
+    <t>raja</t>
+  </si>
+  <si>
+    <t>98,shoe place</t>
+  </si>
+  <si>
+    <t>colombo-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kollupitiya East </t>
+  </si>
+  <si>
+    <t>Peradeniya</t>
   </si>
 </sst>
 </file>
@@ -482,12 +567,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -523,9 +608,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -536,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -618,10 +707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +719,7 @@
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -638,11 +727,141 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/src/com/ptl/data/TestData.xlsx
+++ b/src/com/ptl/data/TestData.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" tabRatio="827" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Login Test" sheetId="2" r:id="rId2"/>
     <sheet name="Allocate Location Test" sheetId="3" r:id="rId3"/>
     <sheet name="Inmate Registration-Personal" sheetId="7" r:id="rId4"/>
+    <sheet name="Inmate Reg-Classification" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
-  <oleSize ref="A1:M20"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>TCID</t>
   </si>
@@ -162,6 +163,18 @@
   </si>
   <si>
     <t>Peradeniya</t>
+  </si>
+  <si>
+    <t>Inmate Reg-Classification</t>
+  </si>
+  <si>
+    <t>preConvict</t>
+  </si>
+  <si>
+    <t>classif</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -564,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,6 +626,14 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -749,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,4 +889,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/com/ptl/data/TestData.xlsx
+++ b/src/com/ptl/data/TestData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" tabRatio="827" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" tabRatio="827" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Login Test" sheetId="2" r:id="rId2"/>
     <sheet name="Allocate Location Test" sheetId="3" r:id="rId3"/>
     <sheet name="Inmate Registration-Personal" sheetId="7" r:id="rId4"/>
-    <sheet name="Inmate Reg-Classification" sheetId="8" r:id="rId5"/>
+    <sheet name="Inmate Reg-Classification" sheetId="9" r:id="rId5"/>
+    <sheet name="Inmate Reg-Characteristic" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -168,13 +169,61 @@
     <t>Inmate Reg-Classification</t>
   </si>
   <si>
-    <t>preConvict</t>
-  </si>
-  <si>
     <t>classif</t>
   </si>
   <si>
-    <t>gender</t>
+    <t>Condem</t>
+  </si>
+  <si>
+    <t>Inmate Reg-Characteristic</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Sri Lankan</t>
+  </si>
+  <si>
+    <t>Sinhala</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Buddhist</t>
+  </si>
+  <si>
+    <t>921663456v</t>
+  </si>
+  <si>
+    <t>Kandy</t>
+  </si>
+  <si>
+    <t>24878788834</t>
+  </si>
+  <si>
+    <t>24/03/1992</t>
+  </si>
+  <si>
+    <t>Marital</t>
+  </si>
+  <si>
+    <t>nic</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>BirthPlace</t>
+  </si>
+  <si>
+    <t>PassportNumber</t>
   </si>
 </sst>
 </file>
@@ -242,12 +291,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,6 +685,14 @@
         <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -771,7 +830,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,33 +952,108 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
       <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/src/com/ptl/data/TestData.xlsx
+++ b/src/com/ptl/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" tabRatio="827" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" tabRatio="827" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -12,18 +12,19 @@
     <sheet name="Allocate Location Test" sheetId="3" r:id="rId3"/>
     <sheet name="Inmate Registration-Personal" sheetId="7" r:id="rId4"/>
     <sheet name="Inmate Reg-Classification" sheetId="9" r:id="rId5"/>
-    <sheet name="Inmate Reg-Characteristic" sheetId="10" r:id="rId6"/>
+    <sheet name="Inmate Reg-Characteristic" sheetId="11" r:id="rId6"/>
+    <sheet name="Inmate Reg-Identification" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>TCID</t>
   </si>
@@ -178,15 +179,6 @@
     <t>Inmate Reg-Characteristic</t>
   </si>
   <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
     <t>Sri Lankan</t>
   </si>
   <si>
@@ -211,19 +203,73 @@
     <t>24/03/1992</t>
   </si>
   <si>
-    <t>Marital</t>
-  </si>
-  <si>
     <t>nic</t>
   </si>
   <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>BirthPlace</t>
-  </si>
-  <si>
-    <t>PassportNumber</t>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>marital</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>birthplace</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>Inmate Reg-Identification</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>faced</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>haird</t>
+  </si>
+  <si>
+    <t>eyes</t>
+  </si>
+  <si>
+    <t>eyesd</t>
+  </si>
+  <si>
+    <t>bodymark</t>
+  </si>
+  <si>
+    <t>Beard</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>Black Birthmark</t>
   </si>
 </sst>
 </file>
@@ -628,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,6 +739,14 @@
         <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -980,35 +1034,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
         <v>64</v>
@@ -1025,28 +1078,104 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
       </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>61</v>
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>60</v>
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>

--- a/src/com/ptl/data/TestData.xlsx
+++ b/src/com/ptl/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" tabRatio="827" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" tabRatio="827" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Inmate Reg-Classification" sheetId="9" r:id="rId5"/>
     <sheet name="Inmate Reg-Characteristic" sheetId="11" r:id="rId6"/>
     <sheet name="Inmate Reg-Identification" sheetId="12" r:id="rId7"/>
+    <sheet name="Inmate Reg-Case" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>TCID</t>
   </si>
@@ -270,6 +271,48 @@
   </si>
   <si>
     <t>Black Birthmark</t>
+  </si>
+  <si>
+    <t>Inmate Reg-Case</t>
+  </si>
+  <si>
+    <t>casen</t>
+  </si>
+  <si>
+    <t>offense</t>
+  </si>
+  <si>
+    <t>offdescription</t>
+  </si>
+  <si>
+    <t>sentence</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>Murder</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Compulsory</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -674,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,6 +790,14 @@
         <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1114,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1184,4 +1235,76 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2">
+        <v>3500</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/com/ptl/data/TestData.xlsx
+++ b/src/com/ptl/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" tabRatio="827" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" tabRatio="827"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,17 +15,18 @@
     <sheet name="Inmate Reg-Characteristic" sheetId="11" r:id="rId6"/>
     <sheet name="Inmate Reg-Identification" sheetId="12" r:id="rId7"/>
     <sheet name="Inmate Reg-Case" sheetId="13" r:id="rId8"/>
+    <sheet name="Property Management Add" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:H20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
   <si>
     <t>TCID</t>
   </si>
@@ -313,6 +314,60 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Private Date</t>
+  </si>
+  <si>
+    <t>Private Item</t>
+  </si>
+  <si>
+    <t>Private Description</t>
+  </si>
+  <si>
+    <t>Private Quantity</t>
+  </si>
+  <si>
+    <t>Private Value</t>
+  </si>
+  <si>
+    <t>Prison Date</t>
+  </si>
+  <si>
+    <t>Prison Item</t>
+  </si>
+  <si>
+    <t>Prison Description</t>
+  </si>
+  <si>
+    <t>Prison Quantity</t>
+  </si>
+  <si>
+    <t>2015-03-16,2015-03-17</t>
+  </si>
+  <si>
+    <t>Money,Phone</t>
+  </si>
+  <si>
+    <t>In dollars,Nokia Phone</t>
+  </si>
+  <si>
+    <t>25,1</t>
+  </si>
+  <si>
+    <t>2015-03-12,'2015-03-19</t>
+  </si>
+  <si>
+    <t>shirt,shirt</t>
+  </si>
+  <si>
+    <t>Green shirt,Blue shirt</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>Property Management Test</t>
   </si>
 </sst>
 </file>
@@ -380,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -388,6 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,6 +854,14 @@
         <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1241,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1307,4 +1371,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1200025000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/com/ptl/data/TestData.xlsx
+++ b/src/com/ptl/data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" tabRatio="827" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" tabRatio="827" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,17 @@
     <sheet name="Inmate Registration-Personal" sheetId="7" r:id="rId4"/>
     <sheet name="Inmate Reg-Classification" sheetId="9" r:id="rId5"/>
     <sheet name="Inmate Reg-Characteristic" sheetId="10" r:id="rId6"/>
+    <sheet name="UpdatePostReg Test" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>TCID</t>
   </si>
@@ -224,6 +224,57 @@
   </si>
   <si>
     <t>PassportNumber</t>
+  </si>
+  <si>
+    <t>Institues</t>
+  </si>
+  <si>
+    <t>Qualification Types</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Employers</t>
+  </si>
+  <si>
+    <t>Organizational Types</t>
+  </si>
+  <si>
+    <t>Positions</t>
+  </si>
+  <si>
+    <t>Dates From</t>
+  </si>
+  <si>
+    <t>Dates To</t>
+  </si>
+  <si>
+    <t>Sri Lanka Insurance,Hatel Janaki</t>
+  </si>
+  <si>
+    <t>Private,Private</t>
+  </si>
+  <si>
+    <t>Trainee,Executive</t>
+  </si>
+  <si>
+    <t>2010-12-02,2013-12-02</t>
+  </si>
+  <si>
+    <t>2013-12-01,2015-01-02</t>
+  </si>
+  <si>
+    <t>UpdatePostReg Test</t>
+  </si>
+  <si>
+    <t>Piliyandala Central,Nalanda</t>
+  </si>
+  <si>
+    <t>Ordinary Level,Advance Level</t>
+  </si>
+  <si>
+    <t>Sinhala,English</t>
   </si>
 </sst>
 </file>
@@ -239,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -299,6 +356,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,13 +700,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -681,18 +740,29 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -980,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -1055,4 +1125,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/com/ptl/data/TestData.xlsx
+++ b/src/com/ptl/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" tabRatio="827"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14715" windowHeight="6420" tabRatio="827" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H20"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
@@ -313,9 +313,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Private Date</t>
   </si>
   <si>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>Property Management Test</t>
+  </si>
+  <si>
+    <t>6786678678687</t>
   </si>
 </sst>
 </file>
@@ -775,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -859,7 +859,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -1305,12 +1305,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -1344,7 +1345,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -1399,31 +1400,31 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>103</v>
-      </c>
-      <c r="J1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1431,31 +1432,31 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>107</v>
-      </c>
-      <c r="E2" t="s">
-        <v>108</v>
       </c>
       <c r="F2" s="7">
         <v>1200025000</v>
       </c>
       <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="s">
         <v>109</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>110</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>111</v>
-      </c>
-      <c r="J2" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
